--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail5 Features.xlsx
@@ -3586,7 +3586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3597,29 +3597,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3640,115 +3638,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3765,72 +3753,66 @@
         <v>5.473537669529843e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6703964467550526</v>
+        <v>2.289617095229545e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.1868618962595514</v>
+        <v>1.307728400206102e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.289617095229545e-06</v>
+        <v>-0.03704416786000603</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.307728400206102e-05</v>
+        <v>0.210239270539932</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03704416786000603</v>
+        <v>0.04556943928032217</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.210239270539932</v>
+        <v>1.771781035315138</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04556943928032217</v>
+        <v>1.862181438812998</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.707892897907793</v>
+        <v>4.45111262389828</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.862181438812998</v>
+        <v>2.364470460497573e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.45111262389828</v>
+        <v>31930202.35333601</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.364470460497573e-14</v>
+        <v>3.628317739984131e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>31930202.35333601</v>
+        <v>24.10667064247448</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.628317739984131e-06</v>
+        <v>0.000148290221913004</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>24.10667064247448</v>
+        <v>9.261253270915924</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000148290221913004</v>
+        <v>1.287823918703168</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.261253270915924</v>
+        <v>0.01271897276709305</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.287823918703168</v>
+        <v>2.85040572841324</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01271897276709305</v>
+        <v>0.9575275832730852</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.85040572841324</v>
+        <v>1.739444377941522</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9575275832730852</v>
+        <v>26</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.739444377941522</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.220962004756299</v>
       </c>
     </row>
@@ -3845,72 +3827,66 @@
         <v>5.59626079794049e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6511785409422697</v>
+        <v>2.317410796366199e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.1366011471785402</v>
+        <v>1.305755098594984e-05</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.317410796366199e-06</v>
+        <v>-0.03479530457494156</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.305755098594984e-05</v>
+        <v>0.2051158780136738</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.03479530457494156</v>
+        <v>0.04328310145591685</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2051158780136738</v>
+        <v>1.783584701180652</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04328310145591685</v>
+        <v>1.674690873097423</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.728505162042484</v>
+        <v>4.473506258451332</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.674690873097423</v>
+        <v>2.340857411961187e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.473506258451332</v>
+        <v>31980787.064128</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.340857411961187e-14</v>
+        <v>3.634270987235885e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>31980787.064128</v>
+        <v>23.9416047037126</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.634270987235885e-06</v>
+        <v>0.0001720688668500082</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>23.9416047037126</v>
+        <v>11.00886398068889</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001720688668500082</v>
+        <v>1.131441720869882</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.00886398068889</v>
+        <v>0.02085390114081248</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.131441720869882</v>
+        <v>2.546944867586451</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02085390114081248</v>
+        <v>0.9572154215187261</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.546944867586451</v>
+        <v>1.68925110876041</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9572154215187261</v>
+        <v>32</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.68925110876041</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2548294484637875</v>
       </c>
     </row>
@@ -3925,72 +3901,66 @@
         <v>5.719051530624861e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.634986700585173</v>
+        <v>2.339902332836746e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.08322444140517593</v>
+        <v>1.303798439031403e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.339902332836746e-06</v>
+        <v>-0.03448715021810365</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.303798439031403e-05</v>
+        <v>0.2006853777216245</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03448715021810365</v>
+        <v>0.04146405146002128</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2006853777216245</v>
+        <v>1.80793660578051</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04146405146002128</v>
+        <v>1.693060790866517</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.760934950806008</v>
+        <v>4.054010077742973</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.693060790866517</v>
+        <v>2.070047511449639e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.054010077742973</v>
+        <v>35972346.47821143</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.070047511449639e-14</v>
+        <v>3.253051141408001e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>35972346.47821143</v>
+        <v>26.786615823546</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.253051141408001e-06</v>
+        <v>0.0001548426712055807</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>26.786615823546</v>
+        <v>9.937570163852868</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001548426712055807</v>
+        <v>1.21449008951148</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.937570163852868</v>
+        <v>0.01529153456562098</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.21449008951148</v>
+        <v>2.961092140770369</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01529153456562098</v>
+        <v>0.9586457910872938</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.961092140770369</v>
+        <v>1.708598195564412</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9586457910872938</v>
+        <v>36</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.708598195564412</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3073570739297234</v>
       </c>
     </row>
@@ -4005,72 +3975,66 @@
         <v>5.838663568082689e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6250357067212924</v>
+        <v>2.360925567397052e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.03452513931598444</v>
+        <v>1.301813418914279e-05</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.360925567397052e-06</v>
+        <v>-0.03408167070311764</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.301813418914279e-05</v>
+        <v>0.1965555942750633</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03408167070311764</v>
+        <v>0.03979560980911797</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1965555942750633</v>
+        <v>1.871086133009566</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03979560980911797</v>
+        <v>1.658439706479835</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.844746858816876</v>
+        <v>4.679991600346298</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.658439706479835</v>
+        <v>1.553315994318085e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.679991600346298</v>
+        <v>46469906.44177709</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.553315994318085e-14</v>
+        <v>2.570587178743002e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>46469906.44177709</v>
+        <v>33.54311648537635</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.570587178743002e-06</v>
+        <v>0.0001151770192667736</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>33.54311648537635</v>
+        <v>6.858224301194017</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001151770192667736</v>
+        <v>2.168137581049026</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.858224301194017</v>
+        <v>0.005417378808828561</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.168137581049026</v>
+        <v>3.491419014573517</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005417378808828561</v>
+        <v>0.9587584913232337</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.491419014573517</v>
+        <v>1.549571328405073</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9587584913232337</v>
+        <v>65</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.549571328405073</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4583520413145011</v>
       </c>
     </row>
@@ -4085,72 +4049,66 @@
         <v>5.956133916027574e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.6190492028501414</v>
+        <v>2.378490266046307e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.01305083712971378</v>
+        <v>1.299834916179912e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.378490266046307e-06</v>
+        <v>-0.03293144137892169</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.299834916179912e-05</v>
+        <v>0.1926511338517994</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03293144137892169</v>
+        <v>0.03819876880029892</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1926511338517994</v>
+        <v>1.882418822495094</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03819876880029892</v>
+        <v>1.763284909743964</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.86301476060708</v>
+        <v>6.092560301360717</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.763284909743964</v>
+        <v>5.230295659159167e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.092560301360717</v>
+        <v>139058842.082656</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.230295659159167e-15</v>
+        <v>8.606345255787418e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>139058842.082656</v>
+        <v>101.14011823402</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.606345255787418e-07</v>
+        <v>9.945357755712007e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>101.14011823402</v>
+        <v>6.181503364592992</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>9.945357755712007e-05</v>
+        <v>1.734708581513156</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.181503364592992</v>
+        <v>0.003800219045509212</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.734708581513156</v>
+        <v>3.547912220958783</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.003800219045509212</v>
+        <v>0.9579114326498803</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.547912220958783</v>
+        <v>1.531222101175982</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9579114326498803</v>
+        <v>65</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.531222101175982</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.6453548022377612</v>
       </c>
     </row>
@@ -4165,72 +4123,66 @@
         <v>6.070644889870726e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.6165945298954011</v>
+        <v>2.385767606338962e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.0611397921830763</v>
+        <v>1.297895347333328e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.385767606338962e-06</v>
+        <v>-0.0316248776296264</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.297895347333328e-05</v>
+        <v>0.1890126643342261</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0316248776296264</v>
+        <v>0.03672598440115613</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1890126643342261</v>
+        <v>1.897373820441068</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03672598440115613</v>
+        <v>2.065925863755061</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.891239219126196</v>
+        <v>4.633091980183087</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.065925863755061</v>
+        <v>2.517841847939583e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.633091980183087</v>
+        <v>286802551.0428613</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.517841847939583e-15</v>
+        <v>4.174023864271013e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>286802551.0428613</v>
+        <v>207.1068519619017</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.174023864271013e-07</v>
+        <v>9.291833547087071e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>207.1068519619017</v>
+        <v>5.592050360169717</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>9.291833547087071e-05</v>
+        <v>2.010628792850734</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>5.592050360169717</v>
+        <v>0.002905651798738523</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>2.010628792850734</v>
+        <v>3.662987231292152</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.002905651798738523</v>
+        <v>0.9580312211842957</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.662987231292152</v>
+        <v>1.438096435849391</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9580312211842957</v>
+        <v>65</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.438096435849391</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.6635151821985513</v>
       </c>
     </row>
@@ -4607,7 +4559,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.480259926494768</v>
+        <v>1.42183842415416</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.816429091201547</v>
@@ -4696,7 +4648,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.482795256926588</v>
+        <v>1.41765081769378</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.521939833885097</v>
@@ -4785,7 +4737,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.498659571939656</v>
+        <v>1.413930517850495</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.539820342629683</v>
@@ -4874,7 +4826,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.503631133177492</v>
+        <v>1.419066275417048</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.589385669669276</v>
@@ -4963,7 +4915,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.522030363920657</v>
+        <v>1.43571589102204</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.571070336170049</v>
@@ -5052,7 +5004,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.539711477434676</v>
+        <v>1.438917845031352</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.902559634542865</v>
@@ -5141,7 +5093,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.541440969513855</v>
+        <v>1.437320655357257</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.643008262659366</v>
@@ -5230,7 +5182,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.550611876450992</v>
+        <v>1.444877602591945</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.490851050431281</v>
@@ -5319,7 +5271,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.548943790056165</v>
+        <v>1.437930358277081</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.541866252427011</v>
@@ -5408,7 +5360,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.556473251083081</v>
+        <v>1.438693420418991</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.645608221587457</v>
@@ -5497,7 +5449,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.555859108685852</v>
+        <v>1.439753786788812</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.972865425126751</v>
@@ -5586,7 +5538,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.557748392436762</v>
+        <v>1.443595556127736</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.032010978724849</v>
@@ -5675,7 +5627,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.556587868639802</v>
+        <v>1.445401290471516</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.451578100916187</v>
@@ -5764,7 +5716,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.561722946692947</v>
+        <v>1.451413446723598</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.640186315605754</v>
@@ -5853,7 +5805,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.56872282341139</v>
+        <v>1.465612803885781</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.579490941295808</v>
@@ -5942,7 +5894,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.580219249596914</v>
+        <v>1.480939228479309</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.623249379159245</v>
@@ -6031,7 +5983,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.57304482767217</v>
+        <v>1.485675570476076</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.964874843814041</v>
@@ -6120,7 +6072,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.592357892814954</v>
+        <v>1.503494515156858</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.709827544256872</v>
@@ -6209,7 +6161,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.578105948230574</v>
+        <v>1.491869601460808</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.14710228503172</v>
@@ -6298,7 +6250,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.571566105422442</v>
+        <v>1.477371148498456</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.713083422812511</v>
@@ -6387,7 +6339,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.557613072242841</v>
+        <v>1.468132850225008</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.816451320104446</v>
@@ -6476,7 +6428,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.561037239262746</v>
+        <v>1.471473518898686</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.90217841539428</v>
@@ -6565,7 +6517,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.561611656713346</v>
+        <v>1.46488290002758</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.623385496178316</v>
@@ -6654,7 +6606,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.572890613135121</v>
+        <v>1.472964518910835</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.661289445965461</v>
@@ -6743,7 +6695,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.564082014532526</v>
+        <v>1.473823574248342</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.857596688617066</v>
@@ -6832,7 +6784,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.578323779739336</v>
+        <v>1.485709093244895</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.887879706223282</v>
@@ -6921,7 +6873,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.578975470025368</v>
+        <v>1.485280083668156</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.883361223833602</v>
@@ -7010,7 +6962,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.579371116615801</v>
+        <v>1.481729146230564</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.013367948373704</v>
@@ -7099,7 +7051,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.581052982225198</v>
+        <v>1.474838207117991</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.553638616642642</v>
@@ -7188,7 +7140,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.592841902193567</v>
+        <v>1.478456918383879</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.752410546836445</v>
@@ -7277,7 +7229,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.584057300316182</v>
+        <v>1.470273974578245</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.814950388636871</v>
@@ -7366,7 +7318,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.57689756500042</v>
+        <v>1.460760842729089</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.818978035183914</v>
@@ -7455,7 +7407,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.576553876894976</v>
+        <v>1.457388947096246</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.692727062666245</v>
@@ -7544,7 +7496,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.582494667743979</v>
+        <v>1.468529510467852</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.720367232212357</v>
@@ -7633,7 +7585,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.599251948371148</v>
+        <v>1.487366714174044</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.998150572846645</v>
@@ -7722,7 +7674,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.594435987897741</v>
+        <v>1.485543652697473</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.172262163422555</v>
@@ -7811,7 +7763,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.599114739954972</v>
+        <v>1.48099483402194</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.241564463905455</v>
@@ -7900,7 +7852,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.600694748959411</v>
+        <v>1.485937092776158</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.853711902189012</v>
@@ -7989,7 +7941,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.597780061242162</v>
+        <v>1.482697352372494</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.038029403045006</v>
@@ -8078,7 +8030,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.609877113251468</v>
+        <v>1.489860926377585</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.750267219783053</v>
@@ -8167,7 +8119,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.603265281424449</v>
+        <v>1.495285036212699</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.801671321609176</v>
@@ -8256,7 +8208,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.622576831416624</v>
+        <v>1.509064833881812</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.149484609870812</v>
@@ -8345,7 +8297,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.632220785713192</v>
+        <v>1.51070053697404</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.085788099409109</v>
@@ -8434,7 +8386,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.626816962093397</v>
+        <v>1.518669575831701</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.788338641405938</v>
@@ -8523,7 +8475,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.625851469030475</v>
+        <v>1.522564779603382</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.725008194661305</v>
@@ -8612,7 +8564,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.633616425947089</v>
+        <v>1.533860119448154</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.858494492602198</v>
@@ -8701,7 +8653,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.65367590208167</v>
+        <v>1.551952457477421</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.956308965041605</v>
@@ -8790,7 +8742,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.661181988702858</v>
+        <v>1.546939701176587</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.933406953724468</v>
@@ -8879,7 +8831,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.658247544697934</v>
+        <v>1.545961004370123</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.196247357549599</v>
@@ -8968,7 +8920,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.667449102299538</v>
+        <v>1.554453446725226</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.708177221044874</v>
@@ -9057,7 +9009,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.67141596166501</v>
+        <v>1.56645557684537</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.944258219892696</v>
@@ -9343,7 +9295,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.564026103748047</v>
+        <v>1.533396821044609</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.330952018630254</v>
@@ -9432,7 +9384,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.572157957504186</v>
+        <v>1.536893568457193</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.089471042460703</v>
@@ -9521,7 +9473,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.568008856032162</v>
+        <v>1.508701602984757</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.642642869955845</v>
@@ -9610,7 +9562,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.559977765940916</v>
+        <v>1.48694029852126</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.341907802458162</v>
@@ -9699,7 +9651,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.603458637455033</v>
+        <v>1.509453766718531</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.353785670325272</v>
@@ -9788,7 +9740,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.622252447575239</v>
+        <v>1.501068933344206</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.647262427405795</v>
@@ -9877,7 +9829,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.632329920036496</v>
+        <v>1.503919982156324</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.107183245864598</v>
@@ -9966,7 +9918,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.616181576450833</v>
+        <v>1.486981886923963</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.955861764340639</v>
@@ -10055,7 +10007,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.603143853828983</v>
+        <v>1.475558833378095</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.840676826928347</v>
@@ -10144,7 +10096,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.605040125375352</v>
+        <v>1.474702592848023</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.131429387010526</v>
@@ -10233,7 +10185,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.597023322367222</v>
+        <v>1.469877456626444</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.115737200954864</v>
@@ -10322,7 +10274,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.593735996568045</v>
+        <v>1.467561780979292</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.989352976212744</v>
@@ -10411,7 +10363,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.588689310974742</v>
+        <v>1.470074717008178</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.837126517063556</v>
@@ -10500,7 +10452,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.595299899413629</v>
+        <v>1.47312119019682</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.950302239209133</v>
@@ -10589,7 +10541,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.597719067394389</v>
+        <v>1.489098207907724</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.749028531421063</v>
@@ -10678,7 +10630,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.608588021834114</v>
+        <v>1.512648403744518</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.860779739887991</v>
@@ -10767,7 +10719,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609257562645577</v>
+        <v>1.520393990965423</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.787279884029787</v>
@@ -10856,7 +10808,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.616807496012165</v>
+        <v>1.526516903413655</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.632563813762583</v>
@@ -10945,7 +10897,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.62383746391955</v>
+        <v>1.539335245947398</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.181204137628805</v>
@@ -11034,7 +10986,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613278109635383</v>
+        <v>1.518516844800379</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.12948602567379</v>
@@ -11123,7 +11075,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.61657824544765</v>
+        <v>1.5121993102424</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.164805901877319</v>
@@ -11212,7 +11164,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.627587351865238</v>
+        <v>1.512774779498629</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.116717276450687</v>
@@ -11301,7 +11253,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.644061625678026</v>
+        <v>1.517953580080426</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.633504837327697</v>
@@ -11390,7 +11342,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.656565327894141</v>
+        <v>1.522274219070832</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.591133634684093</v>
@@ -11479,7 +11431,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.649751749375721</v>
+        <v>1.515586823909101</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.5990840349084</v>
@@ -11568,7 +11520,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.659860700707031</v>
+        <v>1.525540219266638</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.868495852384317</v>
@@ -11657,7 +11609,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.666575815011117</v>
+        <v>1.520428615531315</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.485335478308201</v>
@@ -11746,7 +11698,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.672289808702246</v>
+        <v>1.521167278752338</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.373869478720136</v>
@@ -11835,7 +11787,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.672087933299403</v>
+        <v>1.520187545560782</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.312616995719205</v>
@@ -11924,7 +11876,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.674628288831074</v>
+        <v>1.517982130587366</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.180203423787325</v>
@@ -12013,7 +11965,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.673663016724894</v>
+        <v>1.514983240744731</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.512869799427247</v>
@@ -12102,7 +12054,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.679995100035226</v>
+        <v>1.51799404338578</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.439095771197038</v>
@@ -12191,7 +12143,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.681411471385276</v>
+        <v>1.519317949206475</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.505854500735896</v>
@@ -12280,7 +12232,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.682498689111416</v>
+        <v>1.518964997584682</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.234418302199018</v>
@@ -12369,7 +12321,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.693253565993442</v>
+        <v>1.534226345505185</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.385827589751265</v>
@@ -12458,7 +12410,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.699081369034112</v>
+        <v>1.550737739563801</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.010404710054277</v>
@@ -12547,7 +12499,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.704252739208139</v>
+        <v>1.563536413895054</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.139420495672631</v>
@@ -12636,7 +12588,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.697380401480208</v>
+        <v>1.569153948102374</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.371151729803743</v>
@@ -12725,7 +12677,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.694191415600065</v>
+        <v>1.572822037249593</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.272396492668614</v>
@@ -12814,7 +12766,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.70466108695923</v>
+        <v>1.576953319840724</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.508798549437526</v>
@@ -12903,7 +12855,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.706194094999802</v>
+        <v>1.580871691423745</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.332792006928234</v>
@@ -12992,7 +12944,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.718621868822632</v>
+        <v>1.603226118425318</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.40109819522252</v>
@@ -13081,7 +13033,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.719750685291218</v>
+        <v>1.597274253794625</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.364157894626192</v>
@@ -13170,7 +13122,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.720692165618836</v>
+        <v>1.602816126248048</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.540941194856168</v>
@@ -13259,7 +13211,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.727248777437535</v>
+        <v>1.609352109960587</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.247828777888266</v>
@@ -13348,7 +13300,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.720929315604846</v>
+        <v>1.596874463389358</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.392215904765804</v>
@@ -13437,7 +13389,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.716392102615197</v>
+        <v>1.59017255095758</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.404331962896656</v>
@@ -13526,7 +13478,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.706403041637006</v>
+        <v>1.578304944296027</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.455399817120217</v>
@@ -13615,7 +13567,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.707594124770626</v>
+        <v>1.579651997699208</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.702820189840753</v>
@@ -13704,7 +13656,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.706515081590166</v>
+        <v>1.575027579450755</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.120896619495971</v>
@@ -13793,7 +13745,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.704712842493613</v>
+        <v>1.576910911548422</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.249515343626993</v>
@@ -14079,7 +14031,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.745401906393413</v>
+        <v>1.664839154951371</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.359209563325936</v>
@@ -14168,7 +14120,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.745585483653943</v>
+        <v>1.650344111374445</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.244035662479831</v>
@@ -14257,7 +14209,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.708495877829166</v>
+        <v>1.587075003499993</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.974414914463316</v>
@@ -14346,7 +14298,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.67387806653827</v>
+        <v>1.541435011180879</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.316376153983922</v>
@@ -14435,7 +14387,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.667472112103996</v>
+        <v>1.528624920110846</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.222811405654642</v>
@@ -14524,7 +14476,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.659800581881922</v>
+        <v>1.50313100728745</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.514564827387412</v>
@@ -14613,7 +14565,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.658545835006293</v>
+        <v>1.496204363212954</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.052395022115938</v>
@@ -14702,7 +14654,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.658316230916369</v>
+        <v>1.491996396790135</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.025022352005056</v>
@@ -14791,7 +14743,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.655506638241779</v>
+        <v>1.489276966794446</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.126742089284087</v>
@@ -14880,7 +14832,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.65700356952985</v>
+        <v>1.483422640721752</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.279746204191087</v>
@@ -14969,7 +14921,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.651387137891261</v>
+        <v>1.481136695113754</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.257715176877324</v>
@@ -15058,7 +15010,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.651188535872741</v>
+        <v>1.47975189268106</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.481289210017012</v>
@@ -15147,7 +15099,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.654948182859363</v>
+        <v>1.486013429167857</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.06312919477318</v>
@@ -15236,7 +15188,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.659641825742768</v>
+        <v>1.493142619305752</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.409698545566135</v>
@@ -15325,7 +15277,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.659228843730885</v>
+        <v>1.49915993028552</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.264548975551055</v>
@@ -15414,7 +15366,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.669931431329524</v>
+        <v>1.513131480100962</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.188845399954684</v>
@@ -15503,7 +15455,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.666056670336929</v>
+        <v>1.507252870805762</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.466406696105172</v>
@@ -15592,7 +15544,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.668703145656096</v>
+        <v>1.506491121493075</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.037219057192413</v>
@@ -15681,7 +15633,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.665185124897366</v>
+        <v>1.511798277800084</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.635001076726077</v>
@@ -15770,7 +15722,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.660941813171692</v>
+        <v>1.499837392009503</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.424851826448765</v>
@@ -15859,7 +15811,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.651953829728339</v>
+        <v>1.493588107007076</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.630586976720777</v>
@@ -15948,7 +15900,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.656046078384264</v>
+        <v>1.50036349092347</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.747671677615555</v>
@@ -16037,7 +15989,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.658512712652327</v>
+        <v>1.501870312804719</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.015822686808785</v>
@@ -16126,7 +16078,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.658331183760327</v>
+        <v>1.493231709297003</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.258085820541583</v>
@@ -16215,7 +16167,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.656961211328642</v>
+        <v>1.501506602421642</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.243530021678004</v>
@@ -16304,7 +16256,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.660999693970838</v>
+        <v>1.504797704957669</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.720740726644084</v>
@@ -16393,7 +16345,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.664931445169289</v>
+        <v>1.507544264252779</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.623492719251229</v>
@@ -16482,7 +16434,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.667886797501752</v>
+        <v>1.506339369649998</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.767462123169313</v>
@@ -16571,7 +16523,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.668364753800129</v>
+        <v>1.500656452893545</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.091653926285322</v>
@@ -16660,7 +16612,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.676238112932651</v>
+        <v>1.50287356077503</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.473492392311786</v>
@@ -16749,7 +16701,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.664411907996929</v>
+        <v>1.498771776150423</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.618832208044632</v>
@@ -16838,7 +16790,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.660427304990329</v>
+        <v>1.497530083587221</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.72620145904272</v>
@@ -16927,7 +16879,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.667702627194526</v>
+        <v>1.502200153636031</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.43739209467341</v>
@@ -17016,7 +16968,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.665004294917959</v>
+        <v>1.501104687924594</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.757774215877524</v>
@@ -17105,7 +17057,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.672390449029971</v>
+        <v>1.518993208960519</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.343888507494736</v>
@@ -17194,7 +17146,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.679779987891715</v>
+        <v>1.52866755971864</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.636900291159934</v>
@@ -17283,7 +17235,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.68203565196289</v>
+        <v>1.528548844856356</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.947280635174939</v>
@@ -17372,7 +17324,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.673922357303043</v>
+        <v>1.526074750783419</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.457185336876967</v>
@@ -17461,7 +17413,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.674304877178196</v>
+        <v>1.533578774696058</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.812224027576689</v>
@@ -17550,7 +17502,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.670992588219768</v>
+        <v>1.526307161540958</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.957184690868121</v>
@@ -17639,7 +17591,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.667492604282887</v>
+        <v>1.528462893259122</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.654839821533337</v>
@@ -17728,7 +17680,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.676995681016514</v>
+        <v>1.538103288235644</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.084170120964136</v>
@@ -17817,7 +17769,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.678225463553603</v>
+        <v>1.53918393641488</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.628132859567053</v>
@@ -17906,7 +17858,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.678893562047624</v>
+        <v>1.546131028087363</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.490225388796254</v>
@@ -17995,7 +17947,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.681722232035761</v>
+        <v>1.551923842125311</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.391415367285324</v>
@@ -18084,7 +18036,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.687999463271896</v>
+        <v>1.557723410803096</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.937795011561746</v>
@@ -18173,7 +18125,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.691047943402524</v>
+        <v>1.563274024022848</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.989158844972697</v>
@@ -18262,7 +18214,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.694678191373618</v>
+        <v>1.565627943777778</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.487580168655496</v>
@@ -18351,7 +18303,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.693521261886746</v>
+        <v>1.564439351888718</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.894395890411552</v>
@@ -18440,7 +18392,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.69098551063707</v>
+        <v>1.567851506388262</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.671362799350935</v>
@@ -18529,7 +18481,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.685607766782589</v>
+        <v>1.562044304137447</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.900444964688135</v>
@@ -18815,7 +18767,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.799416743500506</v>
+        <v>1.68758489866509</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.526513557170144</v>
@@ -18904,7 +18856,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.798137668852264</v>
+        <v>1.669589032126222</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.547558524954233</v>
@@ -18993,7 +18945,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.7751068579484</v>
+        <v>1.628041030312776</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.654200859097994</v>
@@ -19082,7 +19034,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.757809762356888</v>
+        <v>1.597283542276771</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.119233638117556</v>
@@ -19171,7 +19123,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.756831676891697</v>
+        <v>1.58860324231906</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.732249162193218</v>
@@ -19260,7 +19212,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.745803281591883</v>
+        <v>1.568111816648831</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.849616447648698</v>
@@ -19349,7 +19301,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.744431747816398</v>
+        <v>1.56913990770015</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.61495375973006</v>
@@ -19438,7 +19390,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.738399892426298</v>
+        <v>1.562068743985979</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.816294037551106</v>
@@ -19527,7 +19479,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.731768579076949</v>
+        <v>1.551835756493429</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.993657375293997</v>
@@ -19616,7 +19568,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.723291476882802</v>
+        <v>1.534529020303374</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.783988457114321</v>
@@ -19705,7 +19657,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.716230333236924</v>
+        <v>1.523946668262102</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.745922410885018</v>
@@ -19794,7 +19746,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.718799731978874</v>
+        <v>1.527476335970301</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.034740414630402</v>
@@ -19883,7 +19835,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.716456358945894</v>
+        <v>1.525671916594862</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.021502919380795</v>
@@ -19972,7 +19924,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.717119129296271</v>
+        <v>1.527966385660985</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.620269332565795</v>
@@ -20061,7 +20013,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.717257825668856</v>
+        <v>1.54352802959412</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.676089226146351</v>
@@ -20150,7 +20102,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.719907657647603</v>
+        <v>1.550032237737746</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.320859386420044</v>
@@ -20239,7 +20191,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.71985613890459</v>
+        <v>1.55633852071038</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.066134983788924</v>
@@ -20328,7 +20280,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.72000415703077</v>
+        <v>1.563965470711251</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.235242333508599</v>
@@ -20417,7 +20369,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.717773493810687</v>
+        <v>1.566172594299906</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.55793309399267</v>
@@ -20506,7 +20458,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.707517530815046</v>
+        <v>1.549427629073863</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.828518873707848</v>
@@ -20595,7 +20547,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.703482855026912</v>
+        <v>1.534318065969589</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.786592983878279</v>
@@ -20684,7 +20636,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.696463668624005</v>
+        <v>1.518061416469074</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.510009709290297</v>
@@ -20773,7 +20725,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.695592089030721</v>
+        <v>1.503580451656184</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.611142635517349</v>
@@ -20862,7 +20814,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.697202712337125</v>
+        <v>1.497786767715512</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.749519989168369</v>
@@ -20951,7 +20903,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.705545497573466</v>
+        <v>1.506609672541808</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.499597643500005</v>
@@ -21040,7 +20992,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.709063404299497</v>
+        <v>1.502806657963993</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.889820570675559</v>
@@ -21129,7 +21081,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.702338997659473</v>
+        <v>1.487339614757961</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.538703851025227</v>
@@ -21218,7 +21170,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.708431294567794</v>
+        <v>1.492693218045628</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.434207784204117</v>
@@ -21307,7 +21259,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.710364116810482</v>
+        <v>1.494483101180842</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.201791684556325</v>
@@ -21396,7 +21348,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.710506786940184</v>
+        <v>1.495343372315591</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.735074765645352</v>
@@ -21485,7 +21437,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.707724104416885</v>
+        <v>1.496555121911728</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.967199617849027</v>
@@ -21574,7 +21526,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.703148713216736</v>
+        <v>1.491840053295724</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.268568619490794</v>
@@ -21663,7 +21615,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.704099547364432</v>
+        <v>1.491410030794946</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.137697944635425</v>
@@ -21752,7 +21704,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.711333933183204</v>
+        <v>1.499696185349387</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.284655393380695</v>
@@ -21841,7 +21793,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.717242344666434</v>
+        <v>1.507020452736037</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.314667202796185</v>
@@ -21930,7 +21882,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.725090000313376</v>
+        <v>1.519929498265272</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.30113166224826</v>
@@ -22019,7 +21971,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.727325174226423</v>
+        <v>1.532207365636087</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.445925294649338</v>
@@ -22108,7 +22060,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.722345845174727</v>
+        <v>1.538881020367772</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.952202351562017</v>
@@ -22197,7 +22149,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.722839135232069</v>
+        <v>1.551756589433593</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.967146208760439</v>
@@ -22286,7 +22238,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.720245678681847</v>
+        <v>1.55500334847687</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.518127581179995</v>
@@ -22375,7 +22327,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.721238073993657</v>
+        <v>1.56762394237981</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.89556606024834</v>
@@ -22464,7 +22416,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.730708172741683</v>
+        <v>1.583674392487104</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.001615780664485</v>
@@ -22553,7 +22505,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.734170085758546</v>
+        <v>1.581965154861497</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.470097853600144</v>
@@ -22642,7 +22594,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.73656420950642</v>
+        <v>1.585067913013893</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.700609497402077</v>
@@ -22731,7 +22683,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.74034513597229</v>
+        <v>1.58341049249841</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.698244914063644</v>
@@ -22820,7 +22772,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.743351265442721</v>
+        <v>1.582878062552681</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.170714351301195</v>
@@ -22909,7 +22861,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.746851832292155</v>
+        <v>1.57789192868238</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.656124041309478</v>
@@ -22998,7 +22950,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.739288272226379</v>
+        <v>1.569284663758875</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.301656897990544</v>
@@ -23087,7 +23039,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.738511556743202</v>
+        <v>1.565333960936306</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.926280282129528</v>
@@ -23176,7 +23128,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.733582414955909</v>
+        <v>1.551748478448811</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.996416166321128</v>
@@ -23265,7 +23217,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.730505627789187</v>
+        <v>1.549224776272002</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.931395070946754</v>
@@ -23551,7 +23503,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.575962738774571</v>
+        <v>1.538909703511274</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.360277373850506</v>
@@ -23640,7 +23592,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.597851760058407</v>
+        <v>1.551017417724279</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.251471802832171</v>
@@ -23729,7 +23681,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.583930469825406</v>
+        <v>1.522171100127855</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.655893552695548</v>
@@ -23818,7 +23770,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.583040366350075</v>
+        <v>1.515131424852457</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.892471908908422</v>
@@ -23907,7 +23859,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.579739325259971</v>
+        <v>1.509976592707483</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.066838690223879</v>
@@ -23996,7 +23948,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.581570846996518</v>
+        <v>1.49690758988031</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.229777117173496</v>
@@ -24085,7 +24037,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.588514321454066</v>
+        <v>1.490808617701763</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.880208623157405</v>
@@ -24174,7 +24126,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.586222467157336</v>
+        <v>1.485350643702378</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.837372191401857</v>
@@ -24263,7 +24215,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.577344783416141</v>
+        <v>1.475220342930829</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.688746281779521</v>
@@ -24352,7 +24304,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.572857335459719</v>
+        <v>1.468465892269386</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.728603734096132</v>
@@ -24441,7 +24393,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.578178322084412</v>
+        <v>1.476758059990012</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.002094745956342</v>
@@ -24530,7 +24482,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.572493842241845</v>
+        <v>1.482610941738251</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.845159429716044</v>
@@ -24619,7 +24571,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.574466097210704</v>
+        <v>1.489306194653007</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.567212674570396</v>
@@ -24708,7 +24660,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.58594770351358</v>
+        <v>1.499432626830628</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.689146444766796</v>
@@ -24797,7 +24749,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.590456084617952</v>
+        <v>1.503447212314203</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.630985933693234</v>
@@ -24886,7 +24838,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.588464289522057</v>
+        <v>1.50551622478262</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.796159434633517</v>
@@ -24975,7 +24927,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.585372914683286</v>
+        <v>1.504849774112424</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.715865991289191</v>
@@ -25064,7 +25016,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.597740584441084</v>
+        <v>1.518400570846834</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.607534676977913</v>
@@ -25153,7 +25105,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.591832380925662</v>
+        <v>1.50778898167031</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.861039817546374</v>
@@ -25242,7 +25194,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.588561231477809</v>
+        <v>1.505351761303352</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.711872992749616</v>
@@ -25331,7 +25283,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.580042293394086</v>
+        <v>1.498887436838112</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.740862103523813</v>
@@ -25420,7 +25372,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.579627360582545</v>
+        <v>1.496312948274761</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.861813043217654</v>
@@ -25509,7 +25461,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.588807454080417</v>
+        <v>1.503316121901933</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.71539629600266</v>
@@ -25598,7 +25550,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.597611919647112</v>
+        <v>1.505770145501462</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.885480328590029</v>
@@ -25687,7 +25639,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.587798003191146</v>
+        <v>1.496875518760428</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.918993009090841</v>
@@ -25776,7 +25728,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.596361865536907</v>
+        <v>1.501361909689134</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.837229885920538</v>
@@ -25865,7 +25817,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.605352845530835</v>
+        <v>1.499979403228466</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.439588212868136</v>
@@ -25954,7 +25906,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.607352242173225</v>
+        <v>1.492085430460897</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.463189049491354</v>
@@ -26043,7 +25995,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.607033101253056</v>
+        <v>1.487758819191099</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.033559466854052</v>
@@ -26132,7 +26084,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.612288270138891</v>
+        <v>1.493052135681304</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.260066619573554</v>
@@ -26221,7 +26173,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.615738868286217</v>
+        <v>1.492871964457503</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.169370994703659</v>
@@ -26310,7 +26262,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.614818104164843</v>
+        <v>1.490713783201496</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.086379544440907</v>
@@ -26399,7 +26351,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.608330033293032</v>
+        <v>1.482307573601708</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.311456808457108</v>
@@ -26488,7 +26440,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.614595109111828</v>
+        <v>1.489630607563513</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.911946938339387</v>
@@ -26577,7 +26529,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.629263922845331</v>
+        <v>1.509483795137546</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.513105669508895</v>
@@ -26666,7 +26618,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.630806589235485</v>
+        <v>1.524539615006342</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.992057779325024</v>
@@ -26755,7 +26707,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.627952739038456</v>
+        <v>1.530022050843589</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.027778934705424</v>
@@ -26844,7 +26796,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.618900796961646</v>
+        <v>1.52130377116822</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.883927107431672</v>
@@ -26933,7 +26885,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.614238098927303</v>
+        <v>1.521839796620782</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.229632130801006</v>
@@ -27022,7 +26974,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.629777171572477</v>
+        <v>1.536074858063333</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.081627837940663</v>
@@ -27111,7 +27063,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.615401450441663</v>
+        <v>1.522122941468351</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.063214007040602</v>
@@ -27200,7 +27152,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.629793373781005</v>
+        <v>1.533183819566896</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.243303126755723</v>
@@ -27289,7 +27241,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.635843328136295</v>
+        <v>1.538890239910434</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.392512475122916</v>
@@ -27378,7 +27330,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.637068853809654</v>
+        <v>1.542332070601445</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.144121530751055</v>
@@ -27467,7 +27419,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.634072037800082</v>
+        <v>1.53442378177925</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.947001487242387</v>
@@ -27556,7 +27508,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.633127751704109</v>
+        <v>1.536062702440326</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.153058469211002</v>
@@ -27645,7 +27597,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.646824252363586</v>
+        <v>1.542809098238143</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.293301766719133</v>
@@ -27734,7 +27686,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.652362179119961</v>
+        <v>1.534279973763453</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.434597783744318</v>
@@ -27823,7 +27775,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.656700323667373</v>
+        <v>1.53847252292247</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.198808182135171</v>
@@ -27912,7 +27864,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.658107453541273</v>
+        <v>1.535274705937042</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.743388961790049</v>
@@ -28001,7 +27953,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.666109818209776</v>
+        <v>1.539555860378579</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.431759061344605</v>
@@ -28287,7 +28239,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.553702314674947</v>
+        <v>1.485766068811023</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.826650897641636</v>
@@ -28376,7 +28328,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.545601872184793</v>
+        <v>1.472573590683447</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.470688901190237</v>
@@ -28465,7 +28417,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.541153863988661</v>
+        <v>1.456216976469507</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.014960650094012</v>
@@ -28554,7 +28506,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.539757116548812</v>
+        <v>1.445246022583959</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.893585936536264</v>
@@ -28643,7 +28595,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.536994239302298</v>
+        <v>1.43563874199663</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.119174180192359</v>
@@ -28732,7 +28684,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.540594388944343</v>
+        <v>1.424942587528951</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.260897690993468</v>
@@ -28821,7 +28773,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.541943308446318</v>
+        <v>1.419820830199955</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.997624820122878</v>
@@ -28910,7 +28862,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.555838550923687</v>
+        <v>1.424848021588089</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.961157336700375</v>
@@ -28999,7 +28951,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.557465326138903</v>
+        <v>1.420846987964435</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.959833420406172</v>
@@ -29088,7 +29040,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.560207345164814</v>
+        <v>1.408892186902617</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.88132691139971</v>
@@ -29177,7 +29129,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.562142024995334</v>
+        <v>1.409683034445973</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.110998728281003</v>
@@ -29266,7 +29218,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.560447867754367</v>
+        <v>1.412907498694382</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.086770409062922</v>
@@ -29355,7 +29307,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.555781672345631</v>
+        <v>1.411684127213295</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.580208294052214</v>
@@ -29444,7 +29396,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.556699861115654</v>
+        <v>1.416266241803426</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.070110950664886</v>
@@ -29533,7 +29485,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.558022576566535</v>
+        <v>1.428291893545296</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.615394998588002</v>
@@ -29622,7 +29574,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.551543788176982</v>
+        <v>1.428055879101955</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.899651270519517</v>
@@ -29711,7 +29663,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.546725088921691</v>
+        <v>1.424030511331387</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.039187145340774</v>
@@ -29800,7 +29752,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.551796669631072</v>
+        <v>1.431656525888551</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.042703467373776</v>
@@ -29889,7 +29841,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.545038715866025</v>
+        <v>1.422927891076616</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.916560087701312</v>
@@ -29978,7 +29930,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.549784894256907</v>
+        <v>1.425724132646853</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.754947604403368</v>
@@ -30067,7 +30019,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.540066490141368</v>
+        <v>1.416561684271194</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.001659939069712</v>
@@ -30156,7 +30108,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.542019450884209</v>
+        <v>1.416261036804971</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.93437618545775</v>
@@ -30245,7 +30197,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.541637019160126</v>
+        <v>1.415126871305544</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.748136288722774</v>
@@ -30334,7 +30286,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.550976476440739</v>
+        <v>1.418205780293481</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.861551191575123</v>
@@ -30423,7 +30375,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.544965554210034</v>
+        <v>1.420112215129991</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.86382849002079</v>
@@ -30512,7 +30464,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.560325721322954</v>
+        <v>1.425215872967961</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.087240189797305</v>
@@ -30601,7 +30553,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.561365232237486</v>
+        <v>1.421496440248067</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.123763056046939</v>
@@ -30690,7 +30642,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.572733100461565</v>
+        <v>1.426572501731594</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.108198826159762</v>
@@ -30779,7 +30731,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.575728597573506</v>
+        <v>1.423658589008573</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.001329453318133</v>
@@ -30868,7 +30820,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.584297440005687</v>
+        <v>1.428822060027563</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.401285755461357</v>
@@ -30957,7 +30909,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.579870377603377</v>
+        <v>1.419832848418342</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.401989159310504</v>
@@ -31046,7 +30998,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.577284298685556</v>
+        <v>1.420429982494474</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.143023881807362</v>
@@ -31135,7 +31087,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.577524527321831</v>
+        <v>1.418215270136078</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.070212220462602</v>
@@ -31224,7 +31176,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.582973087237388</v>
+        <v>1.428061550842491</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.884967192113018</v>
@@ -31313,7 +31265,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.589354610203495</v>
+        <v>1.436667734529071</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.161635511312835</v>
@@ -31402,7 +31354,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.592595414287201</v>
+        <v>1.449311406521414</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.886574073768448</v>
@@ -31491,7 +31443,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.591026255667437</v>
+        <v>1.455478418106504</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.66598965614103</v>
@@ -31580,7 +31532,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.589670972233889</v>
+        <v>1.457022724950563</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.723985218774985</v>
@@ -31669,7 +31621,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.584024526974395</v>
+        <v>1.4592541252689</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.924307480504245</v>
@@ -31758,7 +31710,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.596147597689266</v>
+        <v>1.467229065127651</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.917961256259745</v>
@@ -31847,7 +31799,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.584813451736308</v>
+        <v>1.467589366074132</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.928673108385083</v>
@@ -31936,7 +31888,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.600173948225713</v>
+        <v>1.479221535397801</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.925875210261753</v>
@@ -32025,7 +31977,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.606629784423522</v>
+        <v>1.479516521712401</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.194627488725788</v>
@@ -32114,7 +32066,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.606474109020244</v>
+        <v>1.486972425209526</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.777791005090214</v>
@@ -32203,7 +32155,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.60911351984308</v>
+        <v>1.483768265576931</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.728333426109408</v>
@@ -32292,7 +32244,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.619535398366087</v>
+        <v>1.502117350682644</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.049862136372284</v>
@@ -32381,7 +32333,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.631993915407178</v>
+        <v>1.501597890920892</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.913932665365321</v>
@@ -32470,7 +32422,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.643225492723014</v>
+        <v>1.498617986931571</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.005978886751066</v>
@@ -32559,7 +32511,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.638954586558202</v>
+        <v>1.492505665937008</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.960069448594621</v>
@@ -32648,7 +32600,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.647085771700734</v>
+        <v>1.496453652679023</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.674685458558284</v>
@@ -32737,7 +32689,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.641215110778808</v>
+        <v>1.49375620709667</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.301642063380331</v>
